--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47330FF-26EC-4C8C-8594-BAFF83D1F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD11DF-B022-43BF-8F2D-AFCABE3A1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommonCollectionEvent!$B$1:$B$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommonCollectionEvent!$B$1:$B$47</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,38 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새외형1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새외형2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티켓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영혼열쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>exchangeKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>천계꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요괴불꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SnowMan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>co0_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>co0_1</t>
   </si>
   <si>
@@ -152,10 +112,6 @@
     <t>co0_5</t>
   </si>
   <si>
-    <t>어린이날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영혼석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,7 +164,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노비</t>
+    <t>어린이호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머슴호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단풍호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마교호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견우호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병아리호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선녀호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이무기호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치파오호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장군호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈귀신호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴마사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상어 호순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,45 +312,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,34 +330,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="강조색2" xfId="2" builtinId="33"/>
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,16 +653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="17.625" customWidth="1"/>
@@ -656,22 +688,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -679,25 +711,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1207</v>
+        <v>9032</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>7000000</v>
+        <v>500000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -708,25 +746,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1208</v>
+        <v>9016</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>7000000</v>
+        <v>500000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -737,25 +781,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9010</v>
       </c>
       <c r="C4">
-        <v>5000000</v>
+        <v>3000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>500000</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -766,25 +816,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>9008</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>500000</v>
       </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -795,13 +851,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9001</v>
       </c>
       <c r="C6">
-        <v>600000</v>
+        <v>800</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -809,11 +865,17 @@
       <c r="F6">
         <v>500000</v>
       </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -824,25 +886,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>1454</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -853,13 +915,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1209</v>
+        <v>1419</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
       </c>
       <c r="F8">
         <v>7000000</v>
@@ -868,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -879,13 +944,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1210</v>
+        <v>1431</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
       </c>
       <c r="F9">
         <v>7000000</v>
@@ -894,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -905,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1211</v>
+        <v>1409</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -913,14 +981,17 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
       <c r="F10">
         <v>7000000</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -931,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1212</v>
+        <v>1400</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -939,14 +1010,17 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11">
         <v>7000000</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -957,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1215</v>
+        <v>1292</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -965,14 +1039,17 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -983,25 +1060,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>1291</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1012,22 +1089,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1214</v>
+        <v>1284</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>32</v>
       </c>
       <c r="F14">
         <v>7000000</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1038,60 +1115,51 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1216</v>
+        <v>1277</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>31</v>
       </c>
       <c r="F15">
         <v>7000000</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>1270</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1">
-        <v>100</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="1" t="b">
-        <v>0</v>
+      <c r="F16">
+        <v>7000000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1099,22 +1167,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1226</v>
+        <v>1264</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1125,22 +1193,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1219</v>
+        <v>1263</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
       <c r="F18">
         <v>7000000</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1151,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1223</v>
+        <v>1262</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1159,14 +1227,17 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
       <c r="F19">
         <v>7000000</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1177,22 +1248,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1224</v>
+        <v>1256</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
       <c r="F20">
         <v>7000000</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1203,22 +1274,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1225</v>
+        <v>1255</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
       <c r="F21">
         <v>7000000</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1229,22 +1300,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1229</v>
+        <v>1253</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>25</v>
       </c>
       <c r="F22">
         <v>7000000</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1255,31 +1326,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>1251</v>
       </c>
       <c r="C23">
-        <v>600</v>
-      </c>
-      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>500000</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23">
-        <v>500</v>
+        <v>7000000</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1290,22 +1352,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>23</v>
       </c>
       <c r="F24">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1316,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1324,14 +1386,17 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
       <c r="F25">
         <v>7000000</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1342,22 +1407,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1233</v>
+        <v>1246</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>22</v>
       </c>
       <c r="F26">
         <v>7000000</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1368,7 +1433,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1376,14 +1441,17 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
       <c r="F27">
         <v>7000000</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1402,14 +1470,17 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
       <c r="F28">
         <v>7000000</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1420,7 +1491,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1428,14 +1499,17 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
       <c r="F29">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1446,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1454,14 +1528,17 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
       <c r="F30">
         <v>7000000</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1472,31 +1549,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9001</v>
+        <v>1233</v>
       </c>
       <c r="C31">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>500000</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31">
-        <v>500</v>
+        <v>7000000</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1515,14 +1586,17 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
       <c r="F32">
         <v>7000000</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1533,7 +1607,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1541,14 +1615,17 @@
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
       <c r="F33">
         <v>7000000</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1558,8 +1635,8 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
-        <v>1262</v>
+      <c r="B34">
+        <v>1229</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1567,42 +1644,48 @@
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
       <c r="F34">
         <v>7000000</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
-        <v>1216</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>7000000</v>
-      </c>
-      <c r="I35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="3" t="b">
+      <c r="B35">
+        <v>1226</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>9000000</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1611,22 +1694,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1291</v>
+        <v>1225</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>7000000</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -1637,31 +1723,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9008</v>
+        <v>1224</v>
       </c>
       <c r="C37">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F37">
-        <v>500000</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37">
-        <v>300</v>
+        <v>7000000</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1672,31 +1752,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9010</v>
+        <v>1223</v>
       </c>
       <c r="C38">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F38">
-        <v>500000</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38">
-        <v>300</v>
+        <v>7000000</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -1707,31 +1781,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9016</v>
+        <v>1219</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F39">
-        <v>500000</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39">
-        <v>300</v>
+        <v>7000000</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -1742,22 +1810,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1246</v>
+        <v>1216</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F40">
         <v>7000000</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -1768,22 +1839,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1250</v>
+        <v>1215</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F41">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -1794,22 +1868,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1251</v>
+        <v>1214</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>7000000</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -1820,22 +1897,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1253</v>
+        <v>1212</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>7000000</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1846,22 +1926,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1255</v>
+        <v>1211</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>7000000</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -1872,22 +1955,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1256</v>
+        <v>1210</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <v>7000000</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -1898,22 +1984,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1263</v>
+        <v>1209</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>7000000</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -1924,22 +2013,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1264</v>
+        <v>1208</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>7000000</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -1950,110 +2042,32 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1270</v>
+        <v>1207</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>7000000</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1277</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49">
-        <v>7000000</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1284</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50">
-        <v>7000000</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1414</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51">
-        <v>7000000</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B55" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
+  <autoFilter ref="B1:B52" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD11DF-B022-43BF-8F2D-AFCABE3A1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5038F4-5F98-4B7E-8BFD-A5512C1BA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5038F4-5F98-4B7E-8BFD-A5512C1BA8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F79BF-404A-465F-BCB3-E45E793EB270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,18 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lastexchange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수미꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SnowMan</t>
   </si>
   <si>
@@ -112,184 +104,149 @@
     <t>co0_5</t>
   </si>
   <si>
-    <t>영혼석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수호환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>심득조각</t>
+  </si>
+  <si>
+    <t>도술꽃</t>
+  </si>
+  <si>
+    <t>영혼석</t>
+  </si>
+  <si>
+    <t>수미꽃</t>
+  </si>
+  <si>
+    <t>말괄량이 호순</t>
+  </si>
+  <si>
+    <t>아이스크림 호연</t>
+  </si>
+  <si>
+    <t>청룡 호연</t>
+  </si>
+  <si>
+    <t>상어 호순</t>
+  </si>
+  <si>
+    <t>어린이호연</t>
+  </si>
+  <si>
+    <t>백호호연</t>
+  </si>
+  <si>
+    <t>주작호순</t>
+  </si>
+  <si>
+    <t>머슴호연</t>
+  </si>
+  <si>
+    <t>현무호순</t>
+  </si>
+  <si>
+    <t>검은토끼 호순</t>
+  </si>
+  <si>
+    <t>여포 호연</t>
+  </si>
+  <si>
+    <t>강시 호연</t>
+  </si>
+  <si>
+    <t>강시 호순</t>
+  </si>
+  <si>
+    <t>단풍호순</t>
+  </si>
+  <si>
+    <t>천사 호순</t>
+  </si>
+  <si>
+    <t>천사 호연</t>
+  </si>
+  <si>
+    <t>한가위 호순</t>
+  </si>
+  <si>
+    <t>귀족 호순</t>
+  </si>
+  <si>
+    <t>귀족 호연</t>
+  </si>
+  <si>
+    <t>공주호순</t>
+  </si>
+  <si>
     <t>왕자 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀족 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한가위 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천사 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강시 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강시 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여포 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은토끼 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현무호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린이호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백호호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주작호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머슴호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단풍호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공주호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마교호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마교호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바다호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>직녀호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>견우호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>병아리호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나비호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선녀호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벚꽃호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이무기호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이무기호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>치파오호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대장군호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>눈귀신호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>눈귀신호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>퇴마사호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여우호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>악마호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>악마호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>법사호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한복호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>한복호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상어 호순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보름달 호연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -711,31 +668,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>500000</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -746,31 +703,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9016</v>
+        <v>9032</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>400000</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>500000</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -781,22 +738,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>500000</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -805,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -816,31 +773,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9008</v>
+        <v>9010</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>500000</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -851,31 +808,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9001</v>
+        <v>9008</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>500000</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -886,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -895,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>7000000</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -915,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1419</v>
+        <v>1444</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -924,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>7000000</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -944,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -953,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>7000000</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -973,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1409</v>
+        <v>1431</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -982,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>7000000</v>
@@ -991,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1002,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1011,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>7000000</v>
@@ -1020,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1031,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1292</v>
+        <v>1400</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1040,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12">
         <v>7000000</v>
@@ -1049,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1060,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1069,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>7000000</v>
@@ -1078,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1089,13 +1046,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>7000000</v>
@@ -1104,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1115,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1130,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1141,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>7000000</v>
@@ -1156,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1167,13 +1127,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -1182,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1193,13 +1153,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>7000000</v>
@@ -1208,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1219,16 +1179,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -1237,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1248,13 +1205,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>7000000</v>
@@ -1263,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1274,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -1289,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1300,13 +1260,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>7000000</v>
@@ -1315,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1326,13 +1286,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>7000000</v>
@@ -1341,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1352,13 +1312,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>7000000</v>
@@ -1367,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1378,16 +1338,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>7000000</v>
@@ -1396,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1407,13 +1364,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>7000000</v>
@@ -1422,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1433,16 +1393,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>7000000</v>
@@ -1451,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1462,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1471,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>7000000</v>
@@ -1480,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1491,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1500,16 +1457,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1520,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1529,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F30">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1549,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1558,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>7000000</v>
@@ -1567,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1578,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1587,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>7000000</v>
@@ -1596,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1607,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1616,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>7000000</v>
@@ -1625,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1636,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1645,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>7000000</v>
@@ -1654,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1665,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1674,16 +1631,16 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35">
-        <v>9000000</v>
+        <v>7000000</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -1694,7 +1651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1703,16 +1660,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -1723,7 +1680,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1732,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>7000000</v>
@@ -1741,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1752,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1761,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>7000000</v>
@@ -1770,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -1781,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1790,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>7000000</v>
@@ -1799,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -1810,7 +1767,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1819,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>7000000</v>
@@ -1828,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -1839,7 +1796,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1848,16 +1805,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F41">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -1868,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1877,16 +1834,16 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -1897,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1906,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>7000000</v>
@@ -1915,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -1926,7 +1883,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1935,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>7000000</v>
@@ -1944,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -1955,7 +1912,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1964,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F45">
         <v>7000000</v>
@@ -1973,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -1984,7 +1941,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1993,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>7000000</v>
@@ -2002,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2013,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2022,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F47">
         <v>7000000</v>
@@ -2031,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2042,27 +1999,56 @@
         <v>46</v>
       </c>
       <c r="B48">
+        <v>1208</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48">
+        <v>7000000</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>1207</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48">
-        <v>7000000</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" t="b">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49">
+        <v>7000000</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F79BF-404A-465F-BCB3-E45E793EB270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72591D80-CA95-4BC3-A2CA-8A082217622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonCollectionEvent" sheetId="1" r:id="rId1"/>
+    <sheet name="count" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommonCollectionEvent!$B$1:$B$47</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,18 +109,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심득조각</t>
-  </si>
-  <si>
     <t>도술꽃</t>
   </si>
   <si>
-    <t>영혼석</t>
-  </si>
-  <si>
-    <t>수미꽃</t>
-  </si>
-  <si>
     <t>말괄량이 호순</t>
   </si>
   <si>
@@ -247,13 +239,63 @@
   </si>
   <si>
     <t>한복호연</t>
+  </si>
+  <si>
+    <t>보리 수확 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>수련서</t>
+  </si>
+  <si>
+    <t>수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극조각</t>
+  </si>
+  <si>
+    <t>태극조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +308,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -292,8 +343,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,7 +676,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9043</v>
+        <v>9064</v>
       </c>
       <c r="C2">
-        <v>40000</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>500000</v>
@@ -703,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="C3">
-        <v>400000</v>
+        <v>1500</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>500000</v>
@@ -738,16 +801,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9016</v>
+        <v>9048</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>500000</v>
@@ -773,16 +836,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9010</v>
+        <v>9032</v>
       </c>
       <c r="C5">
-        <v>6000</v>
+        <v>500000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>500000</v>
@@ -808,16 +871,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9008</v>
+        <v>9016</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>500000</v>
@@ -852,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>7000000</v>
@@ -881,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>7000000</v>
@@ -910,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>7000000</v>
@@ -939,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>7000000</v>
@@ -968,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>7000000</v>
@@ -997,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>7000000</v>
@@ -1026,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <v>7000000</v>
@@ -1055,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>7000000</v>
@@ -1081,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>7000000</v>
@@ -1107,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>7000000</v>
@@ -1133,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -1159,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>7000000</v>
@@ -1185,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -1214,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>7000000</v>
@@ -1240,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -1266,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <v>7000000</v>
@@ -1292,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23">
         <v>7000000</v>
@@ -1318,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>7000000</v>
@@ -1344,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>7000000</v>
@@ -1373,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>7000000</v>
@@ -1399,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>7000000</v>
@@ -1428,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>7000000</v>
@@ -1457,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>7000000</v>
@@ -1486,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>9000000</v>
@@ -1515,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>7000000</v>
@@ -1544,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>7000000</v>
@@ -1573,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>7000000</v>
@@ -1602,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>7000000</v>
@@ -1631,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>7000000</v>
@@ -1660,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>9000000</v>
@@ -1689,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F37">
         <v>7000000</v>
@@ -1718,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <v>7000000</v>
@@ -1747,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>7000000</v>
@@ -1776,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>7000000</v>
@@ -1805,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>7000000</v>
@@ -1834,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>5000000</v>
@@ -1863,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>7000000</v>
@@ -1892,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F44">
         <v>7000000</v>
@@ -1921,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <v>7000000</v>
@@ -1950,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>7000000</v>
@@ -1979,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>7000000</v>
@@ -2008,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F48">
         <v>7000000</v>
@@ -2037,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F49">
         <v>7000000</v>
@@ -2058,4 +2121,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84915409-56D0-481E-A885-EC45535989F0}">
+  <dimension ref="B3:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>9064</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>500</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6*D6</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>9049</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="3">
+        <v>500</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4">
+        <f>C7*D7</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>9048</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8*D8</f>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>9032</v>
+      </c>
+      <c r="C9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="4">
+        <f>C9*D9</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>9016</v>
+      </c>
+      <c r="C10" s="3">
+        <v>500</v>
+      </c>
+      <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10*D10</f>
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72591D80-CA95-4BC3-A2CA-8A082217622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6685D-FA3E-449D-9B46-51AF56D2DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -377,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,7 +676,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>9064</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>9049</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>9048</v>
       </c>
       <c r="C4">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>9032</v>
       </c>
       <c r="C5">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>9016</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D6">
         <v>1</v>

--- a/Assets/06.Table/CommonCollectionEvent.xlsx
+++ b/Assets/06.Table/CommonCollectionEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6685D-FA3E-449D-9B46-51AF56D2DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919D81DA-C7B4-48A3-9297-72FE1C4B848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>9064</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>9049</v>
       </c>
       <c r="C3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>9048</v>
       </c>
       <c r="C4">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>9032</v>
       </c>
       <c r="C5">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>9016</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D6">
         <v>1</v>
